--- a/state_results/Rivers/LHorowhenuaInflowatculvdsQueenSt_cd025426c3.xlsx
+++ b/state_results/Rivers/LHorowhenuaInflowatculvdsQueenSt_cd025426c3.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U95"/>
+  <dimension ref="A1:U63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1227,16 +1227,16 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.123</v>
+        <v>1.1231</v>
       </c>
       <c r="G10" t="n">
-        <v>1.61745161290323</v>
+        <v>1.61703870967742</v>
       </c>
       <c r="H10" t="n">
         <v>5.215</v>
       </c>
       <c r="I10" t="n">
-        <v>3.9135</v>
+        <v>3.91338</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
@@ -1244,10 +1244,10 @@
         <v>0.455</v>
       </c>
       <c r="M10" t="n">
-        <v>2.82398</v>
+        <v>2.82387</v>
       </c>
       <c r="N10" t="n">
-        <v>3.7182</v>
+        <v>3.71771</v>
       </c>
       <c r="O10" t="n">
         <v>1791718.7</v>
@@ -1304,16 +1304,16 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.123</v>
+        <v>1.1231</v>
       </c>
       <c r="G11" t="n">
-        <v>1.61745161290323</v>
+        <v>1.61703870967742</v>
       </c>
       <c r="H11" t="n">
         <v>5.215</v>
       </c>
       <c r="I11" t="n">
-        <v>3.9135</v>
+        <v>3.91338</v>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
@@ -1321,10 +1321,10 @@
         <v>0.455</v>
       </c>
       <c r="M11" t="n">
-        <v>2.82398</v>
+        <v>2.82387</v>
       </c>
       <c r="N11" t="n">
-        <v>3.7182</v>
+        <v>3.71771</v>
       </c>
       <c r="O11" t="n">
         <v>1791718.7</v>
@@ -2518,13 +2518,13 @@
         <v>1.13</v>
       </c>
       <c r="G26" t="n">
-        <v>1.59394573571395</v>
+        <v>1.5935343675163</v>
       </c>
       <c r="H26" t="n">
         <v>5.215</v>
       </c>
       <c r="I26" t="n">
-        <v>3.78815</v>
+        <v>3.78812</v>
       </c>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
@@ -2532,10 +2532,10 @@
         <v>0.455</v>
       </c>
       <c r="M26" t="n">
-        <v>2.79537</v>
+        <v>2.79521</v>
       </c>
       <c r="N26" t="n">
-        <v>3.71406</v>
+        <v>3.71359</v>
       </c>
       <c r="O26" t="n">
         <v>1791718.7</v>
@@ -2595,13 +2595,13 @@
         <v>1.13</v>
       </c>
       <c r="G27" t="n">
-        <v>1.59394573571395</v>
+        <v>1.5935343675163</v>
       </c>
       <c r="H27" t="n">
         <v>5.215</v>
       </c>
       <c r="I27" t="n">
-        <v>3.78815</v>
+        <v>3.78812</v>
       </c>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
@@ -2609,10 +2609,10 @@
         <v>0.455</v>
       </c>
       <c r="M27" t="n">
-        <v>2.79537</v>
+        <v>2.79521</v>
       </c>
       <c r="N27" t="n">
-        <v>3.71406</v>
+        <v>3.71359</v>
       </c>
       <c r="O27" t="n">
         <v>1791718.7</v>
@@ -3146,13 +3146,13 @@
         <v>953</v>
       </c>
       <c r="G34" t="n">
-        <v>2697.90256648657</v>
+        <v>2565.72828028609</v>
       </c>
       <c r="H34" t="n">
-        <v>21624.2170582634</v>
+        <v>15264.9035398934</v>
       </c>
       <c r="I34" t="n">
-        <v>11647.80977</v>
+        <v>12499.44704</v>
       </c>
       <c r="J34" t="n">
         <v>58.1818181818182</v>
@@ -3231,13 +3231,13 @@
         <v>953</v>
       </c>
       <c r="G35" t="n">
-        <v>2697.90256648657</v>
+        <v>2565.72828028609</v>
       </c>
       <c r="H35" t="n">
-        <v>21624.2170582634</v>
+        <v>15264.9035398934</v>
       </c>
       <c r="I35" t="n">
-        <v>11647.80977</v>
+        <v>12499.44704</v>
       </c>
       <c r="J35" t="n">
         <v>58.1818181818182</v>
@@ -3316,13 +3316,13 @@
         <v>953</v>
       </c>
       <c r="G36" t="n">
-        <v>2697.90256648657</v>
+        <v>2565.72828028609</v>
       </c>
       <c r="H36" t="n">
-        <v>21624.2170582634</v>
+        <v>15264.9035398934</v>
       </c>
       <c r="I36" t="n">
-        <v>11647.80977</v>
+        <v>12499.44704</v>
       </c>
       <c r="J36" t="n">
         <v>58.1818181818182</v>
@@ -3401,13 +3401,13 @@
         <v>953</v>
       </c>
       <c r="G37" t="n">
-        <v>2697.90256648657</v>
+        <v>2565.72828028609</v>
       </c>
       <c r="H37" t="n">
-        <v>21624.2170582634</v>
+        <v>15264.9035398934</v>
       </c>
       <c r="I37" t="n">
-        <v>11647.80977</v>
+        <v>12499.44704</v>
       </c>
       <c r="J37" t="n">
         <v>58.1818181818182</v>
@@ -3803,10 +3803,10 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>1.763</v>
+        <v>1.7633</v>
       </c>
       <c r="G42" t="n">
-        <v>1.77563030246727</v>
+        <v>1.77530868733093</v>
       </c>
       <c r="H42" t="n">
         <v>5.215</v>
@@ -3820,10 +3820,10 @@
         <v>0.5649999999999999</v>
       </c>
       <c r="M42" t="n">
-        <v>3.0109</v>
+        <v>3.0111</v>
       </c>
       <c r="N42" t="n">
-        <v>3.7141</v>
+        <v>3.71365</v>
       </c>
       <c r="O42" t="n">
         <v>1791718.7</v>
@@ -3880,10 +3880,10 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>1.763</v>
+        <v>1.7633</v>
       </c>
       <c r="G43" t="n">
-        <v>1.77563030246727</v>
+        <v>1.77530868733093</v>
       </c>
       <c r="H43" t="n">
         <v>5.215</v>
@@ -3897,10 +3897,10 @@
         <v>0.5649999999999999</v>
       </c>
       <c r="M43" t="n">
-        <v>3.0109</v>
+        <v>3.0111</v>
       </c>
       <c r="N43" t="n">
-        <v>3.7141</v>
+        <v>3.71365</v>
       </c>
       <c r="O43" t="n">
         <v>1791718.7</v>
@@ -4434,13 +4434,13 @@
         <v>900</v>
       </c>
       <c r="G50" t="n">
-        <v>2884.44802103203</v>
+        <v>2752.27373483154</v>
       </c>
       <c r="H50" t="n">
-        <v>21624.2170582634</v>
+        <v>15264.9035398934</v>
       </c>
       <c r="I50" t="n">
-        <v>11647.80977</v>
+        <v>12499.44704</v>
       </c>
       <c r="J50" t="n">
         <v>58.1818181818182</v>
@@ -4519,13 +4519,13 @@
         <v>900</v>
       </c>
       <c r="G51" t="n">
-        <v>2884.44802103203</v>
+        <v>2752.27373483154</v>
       </c>
       <c r="H51" t="n">
-        <v>21624.2170582634</v>
+        <v>15264.9035398934</v>
       </c>
       <c r="I51" t="n">
-        <v>11647.80977</v>
+        <v>12499.44704</v>
       </c>
       <c r="J51" t="n">
         <v>58.1818181818182</v>
@@ -4604,13 +4604,13 @@
         <v>900</v>
       </c>
       <c r="G52" t="n">
-        <v>2884.44802103203</v>
+        <v>2752.27373483154</v>
       </c>
       <c r="H52" t="n">
-        <v>21624.2170582634</v>
+        <v>15264.9035398934</v>
       </c>
       <c r="I52" t="n">
-        <v>11647.80977</v>
+        <v>12499.44704</v>
       </c>
       <c r="J52" t="n">
         <v>58.1818181818182</v>
@@ -4689,13 +4689,13 @@
         <v>900</v>
       </c>
       <c r="G53" t="n">
-        <v>2884.44802103203</v>
+        <v>2752.27373483154</v>
       </c>
       <c r="H53" t="n">
-        <v>21624.2170582634</v>
+        <v>15264.9035398934</v>
       </c>
       <c r="I53" t="n">
-        <v>11647.80977</v>
+        <v>12499.44704</v>
       </c>
       <c r="J53" t="n">
         <v>58.1818181818182</v>
@@ -5094,7 +5094,7 @@
         <v>1.78</v>
       </c>
       <c r="G58" t="n">
-        <v>1.81937575701273</v>
+        <v>1.8192759600582</v>
       </c>
       <c r="H58" t="n">
         <v>5.215</v>
@@ -5108,10 +5108,10 @@
         <v>0.555</v>
       </c>
       <c r="M58" t="n">
-        <v>3.0864</v>
+        <v>3.08657</v>
       </c>
       <c r="N58" t="n">
-        <v>3.7141</v>
+        <v>3.71365</v>
       </c>
       <c r="O58" t="n">
         <v>1791718.7</v>
@@ -5171,7 +5171,7 @@
         <v>1.78</v>
       </c>
       <c r="G59" t="n">
-        <v>1.81937575701273</v>
+        <v>1.8192759600582</v>
       </c>
       <c r="H59" t="n">
         <v>5.215</v>
@@ -5185,10 +5185,10 @@
         <v>0.555</v>
       </c>
       <c r="M59" t="n">
-        <v>3.0864</v>
+        <v>3.08657</v>
       </c>
       <c r="N59" t="n">
-        <v>3.7141</v>
+        <v>3.71365</v>
       </c>
       <c r="O59" t="n">
         <v>1791718.7</v>
@@ -5530,2582 +5530,6 @@
         </is>
       </c>
     </row>
-    <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>L Horowhenua Inflow at culv d/s Queen St</t>
-        </is>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>DRP (95th Percentile)</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>2015 - 2019</t>
-        </is>
-      </c>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>RepSite</t>
-        </is>
-      </c>
-      <c r="F64" t="n">
-        <v>0.011</v>
-      </c>
-      <c r="G64" t="n">
-        <v>0.0107034791889805</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0.019</v>
-      </c>
-      <c r="I64" t="n">
-        <v>0.018</v>
-      </c>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="M64" t="n">
-        <v>0.015</v>
-      </c>
-      <c r="N64" t="n">
-        <v>0.016</v>
-      </c>
-      <c r="O64" t="n">
-        <v>1791718.7</v>
-      </c>
-      <c r="P64" t="n">
-        <v>5501991.6</v>
-      </c>
-      <c r="Q64" t="inlineStr">
-        <is>
-          <t>Horowhenua District</t>
-        </is>
-      </c>
-      <c r="R64" t="inlineStr">
-        <is>
-          <t>Waiopehu</t>
-        </is>
-      </c>
-      <c r="S64" t="inlineStr">
-        <is>
-          <t>Lake Horowhenua</t>
-        </is>
-      </c>
-      <c r="T64" t="inlineStr">
-        <is>
-          <t>Hoki_1a</t>
-        </is>
-      </c>
-      <c r="U64" t="inlineStr">
-        <is>
-          <t>mg/L</t>
-        </is>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>L Horowhenua Inflow at culv d/s Queen St</t>
-        </is>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>DRP (Median)</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>2015 - 2019</t>
-        </is>
-      </c>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>RepSite</t>
-        </is>
-      </c>
-      <c r="F65" t="n">
-        <v>0.011</v>
-      </c>
-      <c r="G65" t="n">
-        <v>0.0107034791889805</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0.019</v>
-      </c>
-      <c r="I65" t="n">
-        <v>0.018</v>
-      </c>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="M65" t="n">
-        <v>0.015</v>
-      </c>
-      <c r="N65" t="n">
-        <v>0.016</v>
-      </c>
-      <c r="O65" t="n">
-        <v>1791718.7</v>
-      </c>
-      <c r="P65" t="n">
-        <v>5501991.6</v>
-      </c>
-      <c r="Q65" t="inlineStr">
-        <is>
-          <t>Horowhenua District</t>
-        </is>
-      </c>
-      <c r="R65" t="inlineStr">
-        <is>
-          <t>Waiopehu</t>
-        </is>
-      </c>
-      <c r="S65" t="inlineStr">
-        <is>
-          <t>Lake Horowhenua</t>
-        </is>
-      </c>
-      <c r="T65" t="inlineStr">
-        <is>
-          <t>Hoki_1a</t>
-        </is>
-      </c>
-      <c r="U65" t="inlineStr">
-        <is>
-          <t>mg/L</t>
-        </is>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>L Horowhenua Inflow at culv d/s Queen St</t>
-        </is>
-      </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>E coli (&gt;260)</t>
-        </is>
-      </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>E</t>
-        </is>
-      </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>2015 - 2019</t>
-        </is>
-      </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>RepSite</t>
-        </is>
-      </c>
-      <c r="F66" t="n">
-        <v>1050</v>
-      </c>
-      <c r="G66" t="n">
-        <v>3386.81002629003</v>
-      </c>
-      <c r="H66" t="n">
-        <v>21624.2170582634</v>
-      </c>
-      <c r="I66" t="n">
-        <v>13287.39244</v>
-      </c>
-      <c r="J66" t="n">
-        <v>63.6363636363636</v>
-      </c>
-      <c r="K66" t="n">
-        <v>79.5454545454545</v>
-      </c>
-      <c r="L66" t="n">
-        <v>900</v>
-      </c>
-      <c r="M66" t="n">
-        <v>7900</v>
-      </c>
-      <c r="N66" t="n">
-        <v>9656.4</v>
-      </c>
-      <c r="O66" t="n">
-        <v>1791718.7</v>
-      </c>
-      <c r="P66" t="n">
-        <v>5501991.6</v>
-      </c>
-      <c r="Q66" t="inlineStr">
-        <is>
-          <t>Horowhenua District</t>
-        </is>
-      </c>
-      <c r="R66" t="inlineStr">
-        <is>
-          <t>Waiopehu</t>
-        </is>
-      </c>
-      <c r="S66" t="inlineStr">
-        <is>
-          <t>Lake Horowhenua</t>
-        </is>
-      </c>
-      <c r="T66" t="inlineStr">
-        <is>
-          <t>Hoki_1a</t>
-        </is>
-      </c>
-      <c r="U66" t="inlineStr">
-        <is>
-          <t>% exceedances over 260/100 mL</t>
-        </is>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>L Horowhenua Inflow at culv d/s Queen St</t>
-        </is>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>E coli (&gt;540)</t>
-        </is>
-      </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>E</t>
-        </is>
-      </c>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>2015 - 2019</t>
-        </is>
-      </c>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>RepSite</t>
-        </is>
-      </c>
-      <c r="F67" t="n">
-        <v>1050</v>
-      </c>
-      <c r="G67" t="n">
-        <v>3386.81002629003</v>
-      </c>
-      <c r="H67" t="n">
-        <v>21624.2170582634</v>
-      </c>
-      <c r="I67" t="n">
-        <v>13287.39244</v>
-      </c>
-      <c r="J67" t="n">
-        <v>63.6363636363636</v>
-      </c>
-      <c r="K67" t="n">
-        <v>79.5454545454545</v>
-      </c>
-      <c r="L67" t="n">
-        <v>900</v>
-      </c>
-      <c r="M67" t="n">
-        <v>7900</v>
-      </c>
-      <c r="N67" t="n">
-        <v>9656.4</v>
-      </c>
-      <c r="O67" t="n">
-        <v>1791718.7</v>
-      </c>
-      <c r="P67" t="n">
-        <v>5501991.6</v>
-      </c>
-      <c r="Q67" t="inlineStr">
-        <is>
-          <t>Horowhenua District</t>
-        </is>
-      </c>
-      <c r="R67" t="inlineStr">
-        <is>
-          <t>Waiopehu</t>
-        </is>
-      </c>
-      <c r="S67" t="inlineStr">
-        <is>
-          <t>Lake Horowhenua</t>
-        </is>
-      </c>
-      <c r="T67" t="inlineStr">
-        <is>
-          <t>Hoki_1a</t>
-        </is>
-      </c>
-      <c r="U67" t="inlineStr">
-        <is>
-          <t>% exceedances over 540/100 mL</t>
-        </is>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>L Horowhenua Inflow at culv d/s Queen St</t>
-        </is>
-      </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>E coli (Median)</t>
-        </is>
-      </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>E</t>
-        </is>
-      </c>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>2015 - 2019</t>
-        </is>
-      </c>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>RepSite</t>
-        </is>
-      </c>
-      <c r="F68" t="n">
-        <v>1050</v>
-      </c>
-      <c r="G68" t="n">
-        <v>3386.81002629003</v>
-      </c>
-      <c r="H68" t="n">
-        <v>21624.2170582634</v>
-      </c>
-      <c r="I68" t="n">
-        <v>13287.39244</v>
-      </c>
-      <c r="J68" t="n">
-        <v>63.6363636363636</v>
-      </c>
-      <c r="K68" t="n">
-        <v>79.5454545454545</v>
-      </c>
-      <c r="L68" t="n">
-        <v>900</v>
-      </c>
-      <c r="M68" t="n">
-        <v>7900</v>
-      </c>
-      <c r="N68" t="n">
-        <v>9656.4</v>
-      </c>
-      <c r="O68" t="n">
-        <v>1791718.7</v>
-      </c>
-      <c r="P68" t="n">
-        <v>5501991.6</v>
-      </c>
-      <c r="Q68" t="inlineStr">
-        <is>
-          <t>Horowhenua District</t>
-        </is>
-      </c>
-      <c r="R68" t="inlineStr">
-        <is>
-          <t>Waiopehu</t>
-        </is>
-      </c>
-      <c r="S68" t="inlineStr">
-        <is>
-          <t>Lake Horowhenua</t>
-        </is>
-      </c>
-      <c r="T68" t="inlineStr">
-        <is>
-          <t>Hoki_1a</t>
-        </is>
-      </c>
-      <c r="U68" t="inlineStr">
-        <is>
-          <t>E. coli/100 mL</t>
-        </is>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t>L Horowhenua Inflow at culv d/s Queen St</t>
-        </is>
-      </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>E coli (95th Percentile)</t>
-        </is>
-      </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>E</t>
-        </is>
-      </c>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>2015 - 2019</t>
-        </is>
-      </c>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>RepSite</t>
-        </is>
-      </c>
-      <c r="F69" t="n">
-        <v>1050</v>
-      </c>
-      <c r="G69" t="n">
-        <v>3386.81002629003</v>
-      </c>
-      <c r="H69" t="n">
-        <v>21624.2170582634</v>
-      </c>
-      <c r="I69" t="n">
-        <v>13287.39244</v>
-      </c>
-      <c r="J69" t="n">
-        <v>63.6363636363636</v>
-      </c>
-      <c r="K69" t="n">
-        <v>79.5454545454545</v>
-      </c>
-      <c r="L69" t="n">
-        <v>900</v>
-      </c>
-      <c r="M69" t="n">
-        <v>7900</v>
-      </c>
-      <c r="N69" t="n">
-        <v>9656.4</v>
-      </c>
-      <c r="O69" t="n">
-        <v>1791718.7</v>
-      </c>
-      <c r="P69" t="n">
-        <v>5501991.6</v>
-      </c>
-      <c r="Q69" t="inlineStr">
-        <is>
-          <t>Horowhenua District</t>
-        </is>
-      </c>
-      <c r="R69" t="inlineStr">
-        <is>
-          <t>Waiopehu</t>
-        </is>
-      </c>
-      <c r="S69" t="inlineStr">
-        <is>
-          <t>Lake Horowhenua</t>
-        </is>
-      </c>
-      <c r="T69" t="inlineStr">
-        <is>
-          <t>Hoki_1a</t>
-        </is>
-      </c>
-      <c r="U69" t="inlineStr">
-        <is>
-          <t>E. coli/100 mL</t>
-        </is>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="inlineStr">
-        <is>
-          <t>L Horowhenua Inflow at culv d/s Queen St</t>
-        </is>
-      </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>Ammoniacal-N (95th Percentile)</t>
-        </is>
-      </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>2015 - 2019</t>
-        </is>
-      </c>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>RepSite</t>
-        </is>
-      </c>
-      <c r="F70" t="n">
-        <v>0.00633</v>
-      </c>
-      <c r="G70" t="n">
-        <v>0.0124074860809816</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0.0625200650402655</v>
-      </c>
-      <c r="I70" t="n">
-        <v>0.05919</v>
-      </c>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="n">
-        <v>0.00501</v>
-      </c>
-      <c r="M70" t="n">
-        <v>0.02098</v>
-      </c>
-      <c r="N70" t="n">
-        <v>0.04261</v>
-      </c>
-      <c r="O70" t="n">
-        <v>1791718.7</v>
-      </c>
-      <c r="P70" t="n">
-        <v>5501991.6</v>
-      </c>
-      <c r="Q70" t="inlineStr">
-        <is>
-          <t>Horowhenua District</t>
-        </is>
-      </c>
-      <c r="R70" t="inlineStr">
-        <is>
-          <t>Waiopehu</t>
-        </is>
-      </c>
-      <c r="S70" t="inlineStr">
-        <is>
-          <t>Lake Horowhenua</t>
-        </is>
-      </c>
-      <c r="T70" t="inlineStr">
-        <is>
-          <t>Hoki_1a</t>
-        </is>
-      </c>
-      <c r="U70" t="inlineStr">
-        <is>
-          <t>mg NH4-N/L</t>
-        </is>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="inlineStr">
-        <is>
-          <t>L Horowhenua Inflow at culv d/s Queen St</t>
-        </is>
-      </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>Ammoniacal-N (Median)</t>
-        </is>
-      </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>2015 - 2019</t>
-        </is>
-      </c>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>RepSite</t>
-        </is>
-      </c>
-      <c r="F71" t="n">
-        <v>0.00633</v>
-      </c>
-      <c r="G71" t="n">
-        <v>0.0124074860809816</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0.0625200650402655</v>
-      </c>
-      <c r="I71" t="n">
-        <v>0.05919</v>
-      </c>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="n">
-        <v>0.00501</v>
-      </c>
-      <c r="M71" t="n">
-        <v>0.02098</v>
-      </c>
-      <c r="N71" t="n">
-        <v>0.04261</v>
-      </c>
-      <c r="O71" t="n">
-        <v>1791718.7</v>
-      </c>
-      <c r="P71" t="n">
-        <v>5501991.6</v>
-      </c>
-      <c r="Q71" t="inlineStr">
-        <is>
-          <t>Horowhenua District</t>
-        </is>
-      </c>
-      <c r="R71" t="inlineStr">
-        <is>
-          <t>Waiopehu</t>
-        </is>
-      </c>
-      <c r="S71" t="inlineStr">
-        <is>
-          <t>Lake Horowhenua</t>
-        </is>
-      </c>
-      <c r="T71" t="inlineStr">
-        <is>
-          <t>Hoki_1a</t>
-        </is>
-      </c>
-      <c r="U71" t="inlineStr">
-        <is>
-          <t>mg NH4-N/L</t>
-        </is>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="inlineStr">
-        <is>
-          <t>L Horowhenua Inflow at culv d/s Queen St</t>
-        </is>
-      </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>Nitrate-N (95th Percentile)</t>
-        </is>
-      </c>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>2015 - 2019</t>
-        </is>
-      </c>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>RepSite</t>
-        </is>
-      </c>
-      <c r="F72" t="n">
-        <v>1.72565</v>
-      </c>
-      <c r="G72" t="n">
-        <v>1.77582398611969</v>
-      </c>
-      <c r="H72" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="I72" t="n">
-        <v>3.81041</v>
-      </c>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="n">
-        <v>0.517</v>
-      </c>
-      <c r="M72" t="n">
-        <v>3.3012</v>
-      </c>
-      <c r="N72" t="n">
-        <v>3.69813</v>
-      </c>
-      <c r="O72" t="n">
-        <v>1791718.7</v>
-      </c>
-      <c r="P72" t="n">
-        <v>5501991.6</v>
-      </c>
-      <c r="Q72" t="inlineStr">
-        <is>
-          <t>Horowhenua District</t>
-        </is>
-      </c>
-      <c r="R72" t="inlineStr">
-        <is>
-          <t>Waiopehu</t>
-        </is>
-      </c>
-      <c r="S72" t="inlineStr">
-        <is>
-          <t>Lake Horowhenua</t>
-        </is>
-      </c>
-      <c r="T72" t="inlineStr">
-        <is>
-          <t>Hoki_1a</t>
-        </is>
-      </c>
-      <c r="U72" t="inlineStr">
-        <is>
-          <t>mg NO3-N/L</t>
-        </is>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="inlineStr">
-        <is>
-          <t>L Horowhenua Inflow at culv d/s Queen St</t>
-        </is>
-      </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>Nitrate-N (Median)</t>
-        </is>
-      </c>
-      <c r="C73" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D73" t="inlineStr">
-        <is>
-          <t>2015 - 2019</t>
-        </is>
-      </c>
-      <c r="E73" t="inlineStr">
-        <is>
-          <t>RepSite</t>
-        </is>
-      </c>
-      <c r="F73" t="n">
-        <v>1.72565</v>
-      </c>
-      <c r="G73" t="n">
-        <v>1.77582398611969</v>
-      </c>
-      <c r="H73" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="I73" t="n">
-        <v>3.81041</v>
-      </c>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="n">
-        <v>0.517</v>
-      </c>
-      <c r="M73" t="n">
-        <v>3.3012</v>
-      </c>
-      <c r="N73" t="n">
-        <v>3.69813</v>
-      </c>
-      <c r="O73" t="n">
-        <v>1791718.7</v>
-      </c>
-      <c r="P73" t="n">
-        <v>5501991.6</v>
-      </c>
-      <c r="Q73" t="inlineStr">
-        <is>
-          <t>Horowhenua District</t>
-        </is>
-      </c>
-      <c r="R73" t="inlineStr">
-        <is>
-          <t>Waiopehu</t>
-        </is>
-      </c>
-      <c r="S73" t="inlineStr">
-        <is>
-          <t>Lake Horowhenua</t>
-        </is>
-      </c>
-      <c r="T73" t="inlineStr">
-        <is>
-          <t>Hoki_1a</t>
-        </is>
-      </c>
-      <c r="U73" t="inlineStr">
-        <is>
-          <t>mg NO3-N/L</t>
-        </is>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="inlineStr">
-        <is>
-          <t>L Horowhenua Inflow at culv d/s Queen St</t>
-        </is>
-      </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>Soluble Inorganic Nitrogen (95th Percentile)</t>
-        </is>
-      </c>
-      <c r="C74" t="inlineStr"/>
-      <c r="D74" t="inlineStr">
-        <is>
-          <t>2015 - 2019</t>
-        </is>
-      </c>
-      <c r="E74" t="inlineStr">
-        <is>
-          <t>RepSite</t>
-        </is>
-      </c>
-      <c r="F74" t="n">
-        <v>1.7715</v>
-      </c>
-      <c r="G74" t="n">
-        <v>1.81594696899318</v>
-      </c>
-      <c r="H74" t="n">
-        <v>5.215</v>
-      </c>
-      <c r="I74" t="n">
-        <v>3.8302</v>
-      </c>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="n">
-        <v>0.545</v>
-      </c>
-      <c r="M74" t="n">
-        <v>3.3706</v>
-      </c>
-      <c r="N74" t="n">
-        <v>3.71498</v>
-      </c>
-      <c r="O74" t="n">
-        <v>1791718.7</v>
-      </c>
-      <c r="P74" t="n">
-        <v>5501991.6</v>
-      </c>
-      <c r="Q74" t="inlineStr">
-        <is>
-          <t>Horowhenua District</t>
-        </is>
-      </c>
-      <c r="R74" t="inlineStr">
-        <is>
-          <t>Waiopehu</t>
-        </is>
-      </c>
-      <c r="S74" t="inlineStr">
-        <is>
-          <t>Lake Horowhenua</t>
-        </is>
-      </c>
-      <c r="T74" t="inlineStr">
-        <is>
-          <t>Hoki_1a</t>
-        </is>
-      </c>
-      <c r="U74" t="inlineStr">
-        <is>
-          <t>g/m3</t>
-        </is>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="inlineStr">
-        <is>
-          <t>L Horowhenua Inflow at culv d/s Queen St</t>
-        </is>
-      </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>Soluble Inorganic Nitrogen (Median)</t>
-        </is>
-      </c>
-      <c r="C75" t="inlineStr"/>
-      <c r="D75" t="inlineStr">
-        <is>
-          <t>2015 - 2019</t>
-        </is>
-      </c>
-      <c r="E75" t="inlineStr">
-        <is>
-          <t>RepSite</t>
-        </is>
-      </c>
-      <c r="F75" t="n">
-        <v>1.7715</v>
-      </c>
-      <c r="G75" t="n">
-        <v>1.81594696899318</v>
-      </c>
-      <c r="H75" t="n">
-        <v>5.215</v>
-      </c>
-      <c r="I75" t="n">
-        <v>3.8302</v>
-      </c>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="n">
-        <v>0.545</v>
-      </c>
-      <c r="M75" t="n">
-        <v>3.3706</v>
-      </c>
-      <c r="N75" t="n">
-        <v>3.71498</v>
-      </c>
-      <c r="O75" t="n">
-        <v>1791718.7</v>
-      </c>
-      <c r="P75" t="n">
-        <v>5501991.6</v>
-      </c>
-      <c r="Q75" t="inlineStr">
-        <is>
-          <t>Horowhenua District</t>
-        </is>
-      </c>
-      <c r="R75" t="inlineStr">
-        <is>
-          <t>Waiopehu</t>
-        </is>
-      </c>
-      <c r="S75" t="inlineStr">
-        <is>
-          <t>Lake Horowhenua</t>
-        </is>
-      </c>
-      <c r="T75" t="inlineStr">
-        <is>
-          <t>Hoki_1a</t>
-        </is>
-      </c>
-      <c r="U75" t="inlineStr">
-        <is>
-          <t>g/m3</t>
-        </is>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="inlineStr">
-        <is>
-          <t>L Horowhenua Inflow at culv d/s Queen St</t>
-        </is>
-      </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>Total Nitrogen (95th Percentile)</t>
-        </is>
-      </c>
-      <c r="C76" t="inlineStr"/>
-      <c r="D76" t="inlineStr">
-        <is>
-          <t>2015 - 2019</t>
-        </is>
-      </c>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t>RepSite</t>
-        </is>
-      </c>
-      <c r="F76" t="n">
-        <v>2.0945</v>
-      </c>
-      <c r="G76" t="n">
-        <v>2.24681818181818</v>
-      </c>
-      <c r="H76" t="n">
-        <v>5.73</v>
-      </c>
-      <c r="I76" t="n">
-        <v>4.2175</v>
-      </c>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="M76" t="n">
-        <v>3.5725</v>
-      </c>
-      <c r="N76" t="n">
-        <v>3.956</v>
-      </c>
-      <c r="O76" t="n">
-        <v>1791718.7</v>
-      </c>
-      <c r="P76" t="n">
-        <v>5501991.6</v>
-      </c>
-      <c r="Q76" t="inlineStr">
-        <is>
-          <t>Horowhenua District</t>
-        </is>
-      </c>
-      <c r="R76" t="inlineStr">
-        <is>
-          <t>Waiopehu</t>
-        </is>
-      </c>
-      <c r="S76" t="inlineStr">
-        <is>
-          <t>Lake Horowhenua</t>
-        </is>
-      </c>
-      <c r="T76" t="inlineStr">
-        <is>
-          <t>Hoki_1a</t>
-        </is>
-      </c>
-      <c r="U76" t="inlineStr">
-        <is>
-          <t>g/m3</t>
-        </is>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="inlineStr">
-        <is>
-          <t>L Horowhenua Inflow at culv d/s Queen St</t>
-        </is>
-      </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>Total Nitrogen (Median)</t>
-        </is>
-      </c>
-      <c r="C77" t="inlineStr"/>
-      <c r="D77" t="inlineStr">
-        <is>
-          <t>2015 - 2019</t>
-        </is>
-      </c>
-      <c r="E77" t="inlineStr">
-        <is>
-          <t>RepSite</t>
-        </is>
-      </c>
-      <c r="F77" t="n">
-        <v>2.0945</v>
-      </c>
-      <c r="G77" t="n">
-        <v>2.24681818181818</v>
-      </c>
-      <c r="H77" t="n">
-        <v>5.73</v>
-      </c>
-      <c r="I77" t="n">
-        <v>4.2175</v>
-      </c>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="M77" t="n">
-        <v>3.5725</v>
-      </c>
-      <c r="N77" t="n">
-        <v>3.956</v>
-      </c>
-      <c r="O77" t="n">
-        <v>1791718.7</v>
-      </c>
-      <c r="P77" t="n">
-        <v>5501991.6</v>
-      </c>
-      <c r="Q77" t="inlineStr">
-        <is>
-          <t>Horowhenua District</t>
-        </is>
-      </c>
-      <c r="R77" t="inlineStr">
-        <is>
-          <t>Waiopehu</t>
-        </is>
-      </c>
-      <c r="S77" t="inlineStr">
-        <is>
-          <t>Lake Horowhenua</t>
-        </is>
-      </c>
-      <c r="T77" t="inlineStr">
-        <is>
-          <t>Hoki_1a</t>
-        </is>
-      </c>
-      <c r="U77" t="inlineStr">
-        <is>
-          <t>g/m3</t>
-        </is>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="inlineStr">
-        <is>
-          <t>L Horowhenua Inflow at culv d/s Queen St</t>
-        </is>
-      </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>Total Phosphorus (95th Percentile)</t>
-        </is>
-      </c>
-      <c r="C78" t="inlineStr"/>
-      <c r="D78" t="inlineStr">
-        <is>
-          <t>2015 - 2019</t>
-        </is>
-      </c>
-      <c r="E78" t="inlineStr">
-        <is>
-          <t>RepSite</t>
-        </is>
-      </c>
-      <c r="F78" t="n">
-        <v>0.037</v>
-      </c>
-      <c r="G78" t="n">
-        <v>0.0470454545454545</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0.193</v>
-      </c>
-      <c r="I78" t="n">
-        <v>0.1191</v>
-      </c>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="n">
-        <v>0.041</v>
-      </c>
-      <c r="M78" t="n">
-        <v>0.065</v>
-      </c>
-      <c r="N78" t="n">
-        <v>0.10348</v>
-      </c>
-      <c r="O78" t="n">
-        <v>1791718.7</v>
-      </c>
-      <c r="P78" t="n">
-        <v>5501991.6</v>
-      </c>
-      <c r="Q78" t="inlineStr">
-        <is>
-          <t>Horowhenua District</t>
-        </is>
-      </c>
-      <c r="R78" t="inlineStr">
-        <is>
-          <t>Waiopehu</t>
-        </is>
-      </c>
-      <c r="S78" t="inlineStr">
-        <is>
-          <t>Lake Horowhenua</t>
-        </is>
-      </c>
-      <c r="T78" t="inlineStr">
-        <is>
-          <t>Hoki_1a</t>
-        </is>
-      </c>
-      <c r="U78" t="inlineStr">
-        <is>
-          <t>g/m3</t>
-        </is>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="inlineStr">
-        <is>
-          <t>L Horowhenua Inflow at culv d/s Queen St</t>
-        </is>
-      </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>Total Phosphorus (Median)</t>
-        </is>
-      </c>
-      <c r="C79" t="inlineStr"/>
-      <c r="D79" t="inlineStr">
-        <is>
-          <t>2015 - 2019</t>
-        </is>
-      </c>
-      <c r="E79" t="inlineStr">
-        <is>
-          <t>RepSite</t>
-        </is>
-      </c>
-      <c r="F79" t="n">
-        <v>0.037</v>
-      </c>
-      <c r="G79" t="n">
-        <v>0.0470454545454545</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0.193</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0.1191</v>
-      </c>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="n">
-        <v>0.041</v>
-      </c>
-      <c r="M79" t="n">
-        <v>0.065</v>
-      </c>
-      <c r="N79" t="n">
-        <v>0.10348</v>
-      </c>
-      <c r="O79" t="n">
-        <v>1791718.7</v>
-      </c>
-      <c r="P79" t="n">
-        <v>5501991.6</v>
-      </c>
-      <c r="Q79" t="inlineStr">
-        <is>
-          <t>Horowhenua District</t>
-        </is>
-      </c>
-      <c r="R79" t="inlineStr">
-        <is>
-          <t>Waiopehu</t>
-        </is>
-      </c>
-      <c r="S79" t="inlineStr">
-        <is>
-          <t>Lake Horowhenua</t>
-        </is>
-      </c>
-      <c r="T79" t="inlineStr">
-        <is>
-          <t>Hoki_1a</t>
-        </is>
-      </c>
-      <c r="U79" t="inlineStr">
-        <is>
-          <t>g/m3</t>
-        </is>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="inlineStr">
-        <is>
-          <t>L Horowhenua Inflow at culv d/s Queen St</t>
-        </is>
-      </c>
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>DRP (95th Percentile)</t>
-        </is>
-      </c>
-      <c r="C80" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D80" t="inlineStr">
-        <is>
-          <t>2016 - 2020</t>
-        </is>
-      </c>
-      <c r="E80" t="inlineStr">
-        <is>
-          <t>RepSite</t>
-        </is>
-      </c>
-      <c r="F80" t="n">
-        <v>0.0115</v>
-      </c>
-      <c r="G80" t="n">
-        <v>0.0108110338848481</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0.019</v>
-      </c>
-      <c r="I80" t="n">
-        <v>0.0178</v>
-      </c>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="M80" t="n">
-        <v>0.01406</v>
-      </c>
-      <c r="N80" t="n">
-        <v>0.01594</v>
-      </c>
-      <c r="O80" t="n">
-        <v>1791718.7</v>
-      </c>
-      <c r="P80" t="n">
-        <v>5501991.6</v>
-      </c>
-      <c r="Q80" t="inlineStr">
-        <is>
-          <t>Horowhenua District</t>
-        </is>
-      </c>
-      <c r="R80" t="inlineStr">
-        <is>
-          <t>Waiopehu</t>
-        </is>
-      </c>
-      <c r="S80" t="inlineStr">
-        <is>
-          <t>Lake Horowhenua</t>
-        </is>
-      </c>
-      <c r="T80" t="inlineStr">
-        <is>
-          <t>Hoki_1a</t>
-        </is>
-      </c>
-      <c r="U80" t="inlineStr">
-        <is>
-          <t>mg/L</t>
-        </is>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="inlineStr">
-        <is>
-          <t>L Horowhenua Inflow at culv d/s Queen St</t>
-        </is>
-      </c>
-      <c r="B81" t="inlineStr">
-        <is>
-          <t>DRP (Median)</t>
-        </is>
-      </c>
-      <c r="C81" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="D81" t="inlineStr">
-        <is>
-          <t>2016 - 2020</t>
-        </is>
-      </c>
-      <c r="E81" t="inlineStr">
-        <is>
-          <t>RepSite</t>
-        </is>
-      </c>
-      <c r="F81" t="n">
-        <v>0.0115</v>
-      </c>
-      <c r="G81" t="n">
-        <v>0.0108110338848481</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0.019</v>
-      </c>
-      <c r="I81" t="n">
-        <v>0.0178</v>
-      </c>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="M81" t="n">
-        <v>0.01406</v>
-      </c>
-      <c r="N81" t="n">
-        <v>0.01594</v>
-      </c>
-      <c r="O81" t="n">
-        <v>1791718.7</v>
-      </c>
-      <c r="P81" t="n">
-        <v>5501991.6</v>
-      </c>
-      <c r="Q81" t="inlineStr">
-        <is>
-          <t>Horowhenua District</t>
-        </is>
-      </c>
-      <c r="R81" t="inlineStr">
-        <is>
-          <t>Waiopehu</t>
-        </is>
-      </c>
-      <c r="S81" t="inlineStr">
-        <is>
-          <t>Lake Horowhenua</t>
-        </is>
-      </c>
-      <c r="T81" t="inlineStr">
-        <is>
-          <t>Hoki_1a</t>
-        </is>
-      </c>
-      <c r="U81" t="inlineStr">
-        <is>
-          <t>mg/L</t>
-        </is>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="inlineStr">
-        <is>
-          <t>L Horowhenua Inflow at culv d/s Queen St</t>
-        </is>
-      </c>
-      <c r="B82" t="inlineStr">
-        <is>
-          <t>E coli (&gt;260)</t>
-        </is>
-      </c>
-      <c r="C82" t="inlineStr">
-        <is>
-          <t>E</t>
-        </is>
-      </c>
-      <c r="D82" t="inlineStr">
-        <is>
-          <t>2016 - 2020</t>
-        </is>
-      </c>
-      <c r="E82" t="inlineStr">
-        <is>
-          <t>RepSite</t>
-        </is>
-      </c>
-      <c r="F82" t="n">
-        <v>2250</v>
-      </c>
-      <c r="G82" t="n">
-        <v>3843.9575361488</v>
-      </c>
-      <c r="H82" t="n">
-        <v>21624.2170582634</v>
-      </c>
-      <c r="I82" t="n">
-        <v>15253.35126</v>
-      </c>
-      <c r="J82" t="n">
-        <v>71.875</v>
-      </c>
-      <c r="K82" t="n">
-        <v>84.375</v>
-      </c>
-      <c r="L82" t="n">
-        <v>2200</v>
-      </c>
-      <c r="M82" t="n">
-        <v>7900</v>
-      </c>
-      <c r="N82" t="n">
-        <v>12040.14825</v>
-      </c>
-      <c r="O82" t="n">
-        <v>1791718.7</v>
-      </c>
-      <c r="P82" t="n">
-        <v>5501991.6</v>
-      </c>
-      <c r="Q82" t="inlineStr">
-        <is>
-          <t>Horowhenua District</t>
-        </is>
-      </c>
-      <c r="R82" t="inlineStr">
-        <is>
-          <t>Waiopehu</t>
-        </is>
-      </c>
-      <c r="S82" t="inlineStr">
-        <is>
-          <t>Lake Horowhenua</t>
-        </is>
-      </c>
-      <c r="T82" t="inlineStr">
-        <is>
-          <t>Hoki_1a</t>
-        </is>
-      </c>
-      <c r="U82" t="inlineStr">
-        <is>
-          <t>% exceedances over 260/100 mL</t>
-        </is>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="inlineStr">
-        <is>
-          <t>L Horowhenua Inflow at culv d/s Queen St</t>
-        </is>
-      </c>
-      <c r="B83" t="inlineStr">
-        <is>
-          <t>E coli (&gt;540)</t>
-        </is>
-      </c>
-      <c r="C83" t="inlineStr">
-        <is>
-          <t>E</t>
-        </is>
-      </c>
-      <c r="D83" t="inlineStr">
-        <is>
-          <t>2016 - 2020</t>
-        </is>
-      </c>
-      <c r="E83" t="inlineStr">
-        <is>
-          <t>RepSite</t>
-        </is>
-      </c>
-      <c r="F83" t="n">
-        <v>2250</v>
-      </c>
-      <c r="G83" t="n">
-        <v>3843.9575361488</v>
-      </c>
-      <c r="H83" t="n">
-        <v>21624.2170582634</v>
-      </c>
-      <c r="I83" t="n">
-        <v>15253.35126</v>
-      </c>
-      <c r="J83" t="n">
-        <v>71.875</v>
-      </c>
-      <c r="K83" t="n">
-        <v>84.375</v>
-      </c>
-      <c r="L83" t="n">
-        <v>2200</v>
-      </c>
-      <c r="M83" t="n">
-        <v>7900</v>
-      </c>
-      <c r="N83" t="n">
-        <v>12040.14825</v>
-      </c>
-      <c r="O83" t="n">
-        <v>1791718.7</v>
-      </c>
-      <c r="P83" t="n">
-        <v>5501991.6</v>
-      </c>
-      <c r="Q83" t="inlineStr">
-        <is>
-          <t>Horowhenua District</t>
-        </is>
-      </c>
-      <c r="R83" t="inlineStr">
-        <is>
-          <t>Waiopehu</t>
-        </is>
-      </c>
-      <c r="S83" t="inlineStr">
-        <is>
-          <t>Lake Horowhenua</t>
-        </is>
-      </c>
-      <c r="T83" t="inlineStr">
-        <is>
-          <t>Hoki_1a</t>
-        </is>
-      </c>
-      <c r="U83" t="inlineStr">
-        <is>
-          <t>% exceedances over 540/100 mL</t>
-        </is>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="inlineStr">
-        <is>
-          <t>L Horowhenua Inflow at culv d/s Queen St</t>
-        </is>
-      </c>
-      <c r="B84" t="inlineStr">
-        <is>
-          <t>E coli (Median)</t>
-        </is>
-      </c>
-      <c r="C84" t="inlineStr">
-        <is>
-          <t>E</t>
-        </is>
-      </c>
-      <c r="D84" t="inlineStr">
-        <is>
-          <t>2016 - 2020</t>
-        </is>
-      </c>
-      <c r="E84" t="inlineStr">
-        <is>
-          <t>RepSite</t>
-        </is>
-      </c>
-      <c r="F84" t="n">
-        <v>2250</v>
-      </c>
-      <c r="G84" t="n">
-        <v>3843.9575361488</v>
-      </c>
-      <c r="H84" t="n">
-        <v>21624.2170582634</v>
-      </c>
-      <c r="I84" t="n">
-        <v>15253.35126</v>
-      </c>
-      <c r="J84" t="n">
-        <v>71.875</v>
-      </c>
-      <c r="K84" t="n">
-        <v>84.375</v>
-      </c>
-      <c r="L84" t="n">
-        <v>2200</v>
-      </c>
-      <c r="M84" t="n">
-        <v>7900</v>
-      </c>
-      <c r="N84" t="n">
-        <v>12040.14825</v>
-      </c>
-      <c r="O84" t="n">
-        <v>1791718.7</v>
-      </c>
-      <c r="P84" t="n">
-        <v>5501991.6</v>
-      </c>
-      <c r="Q84" t="inlineStr">
-        <is>
-          <t>Horowhenua District</t>
-        </is>
-      </c>
-      <c r="R84" t="inlineStr">
-        <is>
-          <t>Waiopehu</t>
-        </is>
-      </c>
-      <c r="S84" t="inlineStr">
-        <is>
-          <t>Lake Horowhenua</t>
-        </is>
-      </c>
-      <c r="T84" t="inlineStr">
-        <is>
-          <t>Hoki_1a</t>
-        </is>
-      </c>
-      <c r="U84" t="inlineStr">
-        <is>
-          <t>E. coli/100 mL</t>
-        </is>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="inlineStr">
-        <is>
-          <t>L Horowhenua Inflow at culv d/s Queen St</t>
-        </is>
-      </c>
-      <c r="B85" t="inlineStr">
-        <is>
-          <t>E coli (95th Percentile)</t>
-        </is>
-      </c>
-      <c r="C85" t="inlineStr">
-        <is>
-          <t>E</t>
-        </is>
-      </c>
-      <c r="D85" t="inlineStr">
-        <is>
-          <t>2016 - 2020</t>
-        </is>
-      </c>
-      <c r="E85" t="inlineStr">
-        <is>
-          <t>RepSite</t>
-        </is>
-      </c>
-      <c r="F85" t="n">
-        <v>2250</v>
-      </c>
-      <c r="G85" t="n">
-        <v>3843.9575361488</v>
-      </c>
-      <c r="H85" t="n">
-        <v>21624.2170582634</v>
-      </c>
-      <c r="I85" t="n">
-        <v>15253.35126</v>
-      </c>
-      <c r="J85" t="n">
-        <v>71.875</v>
-      </c>
-      <c r="K85" t="n">
-        <v>84.375</v>
-      </c>
-      <c r="L85" t="n">
-        <v>2200</v>
-      </c>
-      <c r="M85" t="n">
-        <v>7900</v>
-      </c>
-      <c r="N85" t="n">
-        <v>12040.14825</v>
-      </c>
-      <c r="O85" t="n">
-        <v>1791718.7</v>
-      </c>
-      <c r="P85" t="n">
-        <v>5501991.6</v>
-      </c>
-      <c r="Q85" t="inlineStr">
-        <is>
-          <t>Horowhenua District</t>
-        </is>
-      </c>
-      <c r="R85" t="inlineStr">
-        <is>
-          <t>Waiopehu</t>
-        </is>
-      </c>
-      <c r="S85" t="inlineStr">
-        <is>
-          <t>Lake Horowhenua</t>
-        </is>
-      </c>
-      <c r="T85" t="inlineStr">
-        <is>
-          <t>Hoki_1a</t>
-        </is>
-      </c>
-      <c r="U85" t="inlineStr">
-        <is>
-          <t>E. coli/100 mL</t>
-        </is>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="inlineStr">
-        <is>
-          <t>L Horowhenua Inflow at culv d/s Queen St</t>
-        </is>
-      </c>
-      <c r="B86" t="inlineStr">
-        <is>
-          <t>Ammoniacal-N (95th Percentile)</t>
-        </is>
-      </c>
-      <c r="C86" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D86" t="inlineStr">
-        <is>
-          <t>2016 - 2020</t>
-        </is>
-      </c>
-      <c r="E86" t="inlineStr">
-        <is>
-          <t>RepSite</t>
-        </is>
-      </c>
-      <c r="F86" t="n">
-        <v>0.009509999999999999</v>
-      </c>
-      <c r="G86" t="n">
-        <v>0.0154445693094007</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0.0625200650402655</v>
-      </c>
-      <c r="I86" t="n">
-        <v>0.0594</v>
-      </c>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="n">
-        <v>0.008319999999999999</v>
-      </c>
-      <c r="M86" t="n">
-        <v>0.02155</v>
-      </c>
-      <c r="N86" t="n">
-        <v>0.0581</v>
-      </c>
-      <c r="O86" t="n">
-        <v>1791718.7</v>
-      </c>
-      <c r="P86" t="n">
-        <v>5501991.6</v>
-      </c>
-      <c r="Q86" t="inlineStr">
-        <is>
-          <t>Horowhenua District</t>
-        </is>
-      </c>
-      <c r="R86" t="inlineStr">
-        <is>
-          <t>Waiopehu</t>
-        </is>
-      </c>
-      <c r="S86" t="inlineStr">
-        <is>
-          <t>Lake Horowhenua</t>
-        </is>
-      </c>
-      <c r="T86" t="inlineStr">
-        <is>
-          <t>Hoki_1a</t>
-        </is>
-      </c>
-      <c r="U86" t="inlineStr">
-        <is>
-          <t>mg NH4-N/L</t>
-        </is>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="inlineStr">
-        <is>
-          <t>L Horowhenua Inflow at culv d/s Queen St</t>
-        </is>
-      </c>
-      <c r="B87" t="inlineStr">
-        <is>
-          <t>Ammoniacal-N (Median)</t>
-        </is>
-      </c>
-      <c r="C87" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D87" t="inlineStr">
-        <is>
-          <t>2016 - 2020</t>
-        </is>
-      </c>
-      <c r="E87" t="inlineStr">
-        <is>
-          <t>RepSite</t>
-        </is>
-      </c>
-      <c r="F87" t="n">
-        <v>0.009509999999999999</v>
-      </c>
-      <c r="G87" t="n">
-        <v>0.0154445693094007</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0.0625200650402655</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0.0594</v>
-      </c>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="n">
-        <v>0.008319999999999999</v>
-      </c>
-      <c r="M87" t="n">
-        <v>0.02155</v>
-      </c>
-      <c r="N87" t="n">
-        <v>0.0581</v>
-      </c>
-      <c r="O87" t="n">
-        <v>1791718.7</v>
-      </c>
-      <c r="P87" t="n">
-        <v>5501991.6</v>
-      </c>
-      <c r="Q87" t="inlineStr">
-        <is>
-          <t>Horowhenua District</t>
-        </is>
-      </c>
-      <c r="R87" t="inlineStr">
-        <is>
-          <t>Waiopehu</t>
-        </is>
-      </c>
-      <c r="S87" t="inlineStr">
-        <is>
-          <t>Lake Horowhenua</t>
-        </is>
-      </c>
-      <c r="T87" t="inlineStr">
-        <is>
-          <t>Hoki_1a</t>
-        </is>
-      </c>
-      <c r="U87" t="inlineStr">
-        <is>
-          <t>mg NH4-N/L</t>
-        </is>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="inlineStr">
-        <is>
-          <t>L Horowhenua Inflow at culv d/s Queen St</t>
-        </is>
-      </c>
-      <c r="B88" t="inlineStr">
-        <is>
-          <t>Nitrate-N (95th Percentile)</t>
-        </is>
-      </c>
-      <c r="C88" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="D88" t="inlineStr">
-        <is>
-          <t>2016 - 2020</t>
-        </is>
-      </c>
-      <c r="E88" t="inlineStr">
-        <is>
-          <t>RepSite</t>
-        </is>
-      </c>
-      <c r="F88" t="n">
-        <v>1.795</v>
-      </c>
-      <c r="G88" t="n">
-        <v>1.77646389612781</v>
-      </c>
-      <c r="H88" t="n">
-        <v>3.77</v>
-      </c>
-      <c r="I88" t="n">
-        <v>3.677</v>
-      </c>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="n">
-        <v>0.5580000000000001</v>
-      </c>
-      <c r="M88" t="n">
-        <v>3.065</v>
-      </c>
-      <c r="N88" t="n">
-        <v>3.548</v>
-      </c>
-      <c r="O88" t="n">
-        <v>1791718.7</v>
-      </c>
-      <c r="P88" t="n">
-        <v>5501991.6</v>
-      </c>
-      <c r="Q88" t="inlineStr">
-        <is>
-          <t>Horowhenua District</t>
-        </is>
-      </c>
-      <c r="R88" t="inlineStr">
-        <is>
-          <t>Waiopehu</t>
-        </is>
-      </c>
-      <c r="S88" t="inlineStr">
-        <is>
-          <t>Lake Horowhenua</t>
-        </is>
-      </c>
-      <c r="T88" t="inlineStr">
-        <is>
-          <t>Hoki_1a</t>
-        </is>
-      </c>
-      <c r="U88" t="inlineStr">
-        <is>
-          <t>mg NO3-N/L</t>
-        </is>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="inlineStr">
-        <is>
-          <t>L Horowhenua Inflow at culv d/s Queen St</t>
-        </is>
-      </c>
-      <c r="B89" t="inlineStr">
-        <is>
-          <t>Nitrate-N (Median)</t>
-        </is>
-      </c>
-      <c r="C89" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D89" t="inlineStr">
-        <is>
-          <t>2016 - 2020</t>
-        </is>
-      </c>
-      <c r="E89" t="inlineStr">
-        <is>
-          <t>RepSite</t>
-        </is>
-      </c>
-      <c r="F89" t="n">
-        <v>1.795</v>
-      </c>
-      <c r="G89" t="n">
-        <v>1.77646389612781</v>
-      </c>
-      <c r="H89" t="n">
-        <v>3.77</v>
-      </c>
-      <c r="I89" t="n">
-        <v>3.677</v>
-      </c>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="n">
-        <v>0.5580000000000001</v>
-      </c>
-      <c r="M89" t="n">
-        <v>3.065</v>
-      </c>
-      <c r="N89" t="n">
-        <v>3.548</v>
-      </c>
-      <c r="O89" t="n">
-        <v>1791718.7</v>
-      </c>
-      <c r="P89" t="n">
-        <v>5501991.6</v>
-      </c>
-      <c r="Q89" t="inlineStr">
-        <is>
-          <t>Horowhenua District</t>
-        </is>
-      </c>
-      <c r="R89" t="inlineStr">
-        <is>
-          <t>Waiopehu</t>
-        </is>
-      </c>
-      <c r="S89" t="inlineStr">
-        <is>
-          <t>Lake Horowhenua</t>
-        </is>
-      </c>
-      <c r="T89" t="inlineStr">
-        <is>
-          <t>Hoki_1a</t>
-        </is>
-      </c>
-      <c r="U89" t="inlineStr">
-        <is>
-          <t>mg NO3-N/L</t>
-        </is>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="inlineStr">
-        <is>
-          <t>L Horowhenua Inflow at culv d/s Queen St</t>
-        </is>
-      </c>
-      <c r="B90" t="inlineStr">
-        <is>
-          <t>Soluble Inorganic Nitrogen (95th Percentile)</t>
-        </is>
-      </c>
-      <c r="C90" t="inlineStr"/>
-      <c r="D90" t="inlineStr">
-        <is>
-          <t>2016 - 2020</t>
-        </is>
-      </c>
-      <c r="E90" t="inlineStr">
-        <is>
-          <t>RepSite</t>
-        </is>
-      </c>
-      <c r="F90" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="G90" t="n">
-        <v>1.82277083236562</v>
-      </c>
-      <c r="H90" t="n">
-        <v>3.79</v>
-      </c>
-      <c r="I90" t="n">
-        <v>3.7025</v>
-      </c>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="n">
-        <v>0.5649999999999999</v>
-      </c>
-      <c r="M90" t="n">
-        <v>3.1162</v>
-      </c>
-      <c r="N90" t="n">
-        <v>3.5786</v>
-      </c>
-      <c r="O90" t="n">
-        <v>1791718.7</v>
-      </c>
-      <c r="P90" t="n">
-        <v>5501991.6</v>
-      </c>
-      <c r="Q90" t="inlineStr">
-        <is>
-          <t>Horowhenua District</t>
-        </is>
-      </c>
-      <c r="R90" t="inlineStr">
-        <is>
-          <t>Waiopehu</t>
-        </is>
-      </c>
-      <c r="S90" t="inlineStr">
-        <is>
-          <t>Lake Horowhenua</t>
-        </is>
-      </c>
-      <c r="T90" t="inlineStr">
-        <is>
-          <t>Hoki_1a</t>
-        </is>
-      </c>
-      <c r="U90" t="inlineStr">
-        <is>
-          <t>g/m3</t>
-        </is>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="inlineStr">
-        <is>
-          <t>L Horowhenua Inflow at culv d/s Queen St</t>
-        </is>
-      </c>
-      <c r="B91" t="inlineStr">
-        <is>
-          <t>Soluble Inorganic Nitrogen (Median)</t>
-        </is>
-      </c>
-      <c r="C91" t="inlineStr"/>
-      <c r="D91" t="inlineStr">
-        <is>
-          <t>2016 - 2020</t>
-        </is>
-      </c>
-      <c r="E91" t="inlineStr">
-        <is>
-          <t>RepSite</t>
-        </is>
-      </c>
-      <c r="F91" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="G91" t="n">
-        <v>1.82277083236562</v>
-      </c>
-      <c r="H91" t="n">
-        <v>3.79</v>
-      </c>
-      <c r="I91" t="n">
-        <v>3.7025</v>
-      </c>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="n">
-        <v>0.5649999999999999</v>
-      </c>
-      <c r="M91" t="n">
-        <v>3.1162</v>
-      </c>
-      <c r="N91" t="n">
-        <v>3.5786</v>
-      </c>
-      <c r="O91" t="n">
-        <v>1791718.7</v>
-      </c>
-      <c r="P91" t="n">
-        <v>5501991.6</v>
-      </c>
-      <c r="Q91" t="inlineStr">
-        <is>
-          <t>Horowhenua District</t>
-        </is>
-      </c>
-      <c r="R91" t="inlineStr">
-        <is>
-          <t>Waiopehu</t>
-        </is>
-      </c>
-      <c r="S91" t="inlineStr">
-        <is>
-          <t>Lake Horowhenua</t>
-        </is>
-      </c>
-      <c r="T91" t="inlineStr">
-        <is>
-          <t>Hoki_1a</t>
-        </is>
-      </c>
-      <c r="U91" t="inlineStr">
-        <is>
-          <t>g/m3</t>
-        </is>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="inlineStr">
-        <is>
-          <t>L Horowhenua Inflow at culv d/s Queen St</t>
-        </is>
-      </c>
-      <c r="B92" t="inlineStr">
-        <is>
-          <t>Total Nitrogen (95th Percentile)</t>
-        </is>
-      </c>
-      <c r="C92" t="inlineStr"/>
-      <c r="D92" t="inlineStr">
-        <is>
-          <t>2016 - 2020</t>
-        </is>
-      </c>
-      <c r="E92" t="inlineStr">
-        <is>
-          <t>RepSite</t>
-        </is>
-      </c>
-      <c r="F92" t="n">
-        <v>2.23</v>
-      </c>
-      <c r="G92" t="n">
-        <v>2.2025</v>
-      </c>
-      <c r="H92" t="n">
-        <v>4.12</v>
-      </c>
-      <c r="I92" t="n">
-        <v>3.94</v>
-      </c>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="M92" t="n">
-        <v>3.3256</v>
-      </c>
-      <c r="N92" t="n">
-        <v>3.7588</v>
-      </c>
-      <c r="O92" t="n">
-        <v>1791718.7</v>
-      </c>
-      <c r="P92" t="n">
-        <v>5501991.6</v>
-      </c>
-      <c r="Q92" t="inlineStr">
-        <is>
-          <t>Horowhenua District</t>
-        </is>
-      </c>
-      <c r="R92" t="inlineStr">
-        <is>
-          <t>Waiopehu</t>
-        </is>
-      </c>
-      <c r="S92" t="inlineStr">
-        <is>
-          <t>Lake Horowhenua</t>
-        </is>
-      </c>
-      <c r="T92" t="inlineStr">
-        <is>
-          <t>Hoki_1a</t>
-        </is>
-      </c>
-      <c r="U92" t="inlineStr">
-        <is>
-          <t>g/m3</t>
-        </is>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="inlineStr">
-        <is>
-          <t>L Horowhenua Inflow at culv d/s Queen St</t>
-        </is>
-      </c>
-      <c r="B93" t="inlineStr">
-        <is>
-          <t>Total Nitrogen (Median)</t>
-        </is>
-      </c>
-      <c r="C93" t="inlineStr"/>
-      <c r="D93" t="inlineStr">
-        <is>
-          <t>2016 - 2020</t>
-        </is>
-      </c>
-      <c r="E93" t="inlineStr">
-        <is>
-          <t>RepSite</t>
-        </is>
-      </c>
-      <c r="F93" t="n">
-        <v>2.23</v>
-      </c>
-      <c r="G93" t="n">
-        <v>2.2025</v>
-      </c>
-      <c r="H93" t="n">
-        <v>4.12</v>
-      </c>
-      <c r="I93" t="n">
-        <v>3.94</v>
-      </c>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="M93" t="n">
-        <v>3.3256</v>
-      </c>
-      <c r="N93" t="n">
-        <v>3.7588</v>
-      </c>
-      <c r="O93" t="n">
-        <v>1791718.7</v>
-      </c>
-      <c r="P93" t="n">
-        <v>5501991.6</v>
-      </c>
-      <c r="Q93" t="inlineStr">
-        <is>
-          <t>Horowhenua District</t>
-        </is>
-      </c>
-      <c r="R93" t="inlineStr">
-        <is>
-          <t>Waiopehu</t>
-        </is>
-      </c>
-      <c r="S93" t="inlineStr">
-        <is>
-          <t>Lake Horowhenua</t>
-        </is>
-      </c>
-      <c r="T93" t="inlineStr">
-        <is>
-          <t>Hoki_1a</t>
-        </is>
-      </c>
-      <c r="U93" t="inlineStr">
-        <is>
-          <t>g/m3</t>
-        </is>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="inlineStr">
-        <is>
-          <t>L Horowhenua Inflow at culv d/s Queen St</t>
-        </is>
-      </c>
-      <c r="B94" t="inlineStr">
-        <is>
-          <t>Total Phosphorus (95th Percentile)</t>
-        </is>
-      </c>
-      <c r="C94" t="inlineStr"/>
-      <c r="D94" t="inlineStr">
-        <is>
-          <t>2016 - 2020</t>
-        </is>
-      </c>
-      <c r="E94" t="inlineStr">
-        <is>
-          <t>RepSite</t>
-        </is>
-      </c>
-      <c r="F94" t="n">
-        <v>0.0375</v>
-      </c>
-      <c r="G94" t="n">
-        <v>0.05109375</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0.193</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0.1353</v>
-      </c>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="n">
-        <v>0.037</v>
-      </c>
-      <c r="M94" t="n">
-        <v>0.06766</v>
-      </c>
-      <c r="N94" t="n">
-        <v>0.11058</v>
-      </c>
-      <c r="O94" t="n">
-        <v>1791718.7</v>
-      </c>
-      <c r="P94" t="n">
-        <v>5501991.6</v>
-      </c>
-      <c r="Q94" t="inlineStr">
-        <is>
-          <t>Horowhenua District</t>
-        </is>
-      </c>
-      <c r="R94" t="inlineStr">
-        <is>
-          <t>Waiopehu</t>
-        </is>
-      </c>
-      <c r="S94" t="inlineStr">
-        <is>
-          <t>Lake Horowhenua</t>
-        </is>
-      </c>
-      <c r="T94" t="inlineStr">
-        <is>
-          <t>Hoki_1a</t>
-        </is>
-      </c>
-      <c r="U94" t="inlineStr">
-        <is>
-          <t>g/m3</t>
-        </is>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="inlineStr">
-        <is>
-          <t>L Horowhenua Inflow at culv d/s Queen St</t>
-        </is>
-      </c>
-      <c r="B95" t="inlineStr">
-        <is>
-          <t>Total Phosphorus (Median)</t>
-        </is>
-      </c>
-      <c r="C95" t="inlineStr"/>
-      <c r="D95" t="inlineStr">
-        <is>
-          <t>2016 - 2020</t>
-        </is>
-      </c>
-      <c r="E95" t="inlineStr">
-        <is>
-          <t>RepSite</t>
-        </is>
-      </c>
-      <c r="F95" t="n">
-        <v>0.0375</v>
-      </c>
-      <c r="G95" t="n">
-        <v>0.05109375</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0.193</v>
-      </c>
-      <c r="I95" t="n">
-        <v>0.1353</v>
-      </c>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="n">
-        <v>0.037</v>
-      </c>
-      <c r="M95" t="n">
-        <v>0.06766</v>
-      </c>
-      <c r="N95" t="n">
-        <v>0.11058</v>
-      </c>
-      <c r="O95" t="n">
-        <v>1791718.7</v>
-      </c>
-      <c r="P95" t="n">
-        <v>5501991.6</v>
-      </c>
-      <c r="Q95" t="inlineStr">
-        <is>
-          <t>Horowhenua District</t>
-        </is>
-      </c>
-      <c r="R95" t="inlineStr">
-        <is>
-          <t>Waiopehu</t>
-        </is>
-      </c>
-      <c r="S95" t="inlineStr">
-        <is>
-          <t>Lake Horowhenua</t>
-        </is>
-      </c>
-      <c r="T95" t="inlineStr">
-        <is>
-          <t>Hoki_1a</t>
-        </is>
-      </c>
-      <c r="U95" t="inlineStr">
-        <is>
-          <t>g/m3</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/state_results/Rivers/LHorowhenuaInflowatculvdsQueenSt_cd025426c3.xlsx
+++ b/state_results/Rivers/LHorowhenuaInflowatculvdsQueenSt_cd025426c3.xlsx
@@ -3146,13 +3146,13 @@
         <v>953</v>
       </c>
       <c r="G34" t="n">
-        <v>2565.72828028609</v>
+        <v>2778.73660728742</v>
       </c>
       <c r="H34" t="n">
-        <v>15264.9035398934</v>
+        <v>22966.8833596835</v>
       </c>
       <c r="I34" t="n">
-        <v>12499.44704</v>
+        <v>9756.09347</v>
       </c>
       <c r="J34" t="n">
         <v>58.1818181818182</v>
@@ -3231,13 +3231,13 @@
         <v>953</v>
       </c>
       <c r="G35" t="n">
-        <v>2565.72828028609</v>
+        <v>2778.73660728742</v>
       </c>
       <c r="H35" t="n">
-        <v>15264.9035398934</v>
+        <v>22966.8833596835</v>
       </c>
       <c r="I35" t="n">
-        <v>12499.44704</v>
+        <v>9756.09347</v>
       </c>
       <c r="J35" t="n">
         <v>58.1818181818182</v>
@@ -3316,13 +3316,13 @@
         <v>953</v>
       </c>
       <c r="G36" t="n">
-        <v>2565.72828028609</v>
+        <v>2778.73660728742</v>
       </c>
       <c r="H36" t="n">
-        <v>15264.9035398934</v>
+        <v>22966.8833596835</v>
       </c>
       <c r="I36" t="n">
-        <v>12499.44704</v>
+        <v>9756.09347</v>
       </c>
       <c r="J36" t="n">
         <v>58.1818181818182</v>
@@ -3401,13 +3401,13 @@
         <v>953</v>
       </c>
       <c r="G37" t="n">
-        <v>2565.72828028609</v>
+        <v>2778.73660728742</v>
       </c>
       <c r="H37" t="n">
-        <v>15264.9035398934</v>
+        <v>22966.8833596835</v>
       </c>
       <c r="I37" t="n">
-        <v>12499.44704</v>
+        <v>9756.09347</v>
       </c>
       <c r="J37" t="n">
         <v>58.1818181818182</v>
@@ -4434,13 +4434,13 @@
         <v>900</v>
       </c>
       <c r="G50" t="n">
-        <v>2752.27373483154</v>
+        <v>2965.28206183288</v>
       </c>
       <c r="H50" t="n">
-        <v>15264.9035398934</v>
+        <v>22966.8833596835</v>
       </c>
       <c r="I50" t="n">
-        <v>12499.44704</v>
+        <v>9756.09347</v>
       </c>
       <c r="J50" t="n">
         <v>58.1818181818182</v>
@@ -4519,13 +4519,13 @@
         <v>900</v>
       </c>
       <c r="G51" t="n">
-        <v>2752.27373483154</v>
+        <v>2965.28206183288</v>
       </c>
       <c r="H51" t="n">
-        <v>15264.9035398934</v>
+        <v>22966.8833596835</v>
       </c>
       <c r="I51" t="n">
-        <v>12499.44704</v>
+        <v>9756.09347</v>
       </c>
       <c r="J51" t="n">
         <v>58.1818181818182</v>
@@ -4604,13 +4604,13 @@
         <v>900</v>
       </c>
       <c r="G52" t="n">
-        <v>2752.27373483154</v>
+        <v>2965.28206183288</v>
       </c>
       <c r="H52" t="n">
-        <v>15264.9035398934</v>
+        <v>22966.8833596835</v>
       </c>
       <c r="I52" t="n">
-        <v>12499.44704</v>
+        <v>9756.09347</v>
       </c>
       <c r="J52" t="n">
         <v>58.1818181818182</v>
@@ -4689,13 +4689,13 @@
         <v>900</v>
       </c>
       <c r="G53" t="n">
-        <v>2752.27373483154</v>
+        <v>2965.28206183288</v>
       </c>
       <c r="H53" t="n">
-        <v>15264.9035398934</v>
+        <v>22966.8833596835</v>
       </c>
       <c r="I53" t="n">
-        <v>12499.44704</v>
+        <v>9756.09347</v>
       </c>
       <c r="J53" t="n">
         <v>58.1818181818182</v>
